--- a/biology/Botanique/Hirsutella/Hirsutella.xlsx
+++ b/biology/Botanique/Hirsutella/Hirsutella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirsutella est un genre de champignons ascomycètes de la famille des Ophiocordycipitaceae. Il s'agit de la forme anamorphe, c'est-à-dire à reproduction asexuée. La forme téléomorphe des Hirsutella, c'est-à-dire à reproduction sexuée, appartient aux genres Cordyceps et Torrubiella.
-Les espèces de ce genre parasitent certains insectes tels Leptodirus hochenwartii et Parapropus sericeus[2], ainsi que certains nématodes et acariens comme Abacarus hystrix[3]. Elles représentent ainsi un intérêt en tant qu'agent de lutte biologique contre des ravageurs agricoles.
+Les espèces de ce genre parasitent certains insectes tels Leptodirus hochenwartii et Parapropus sericeus, ainsi que certains nématodes et acariens comme Abacarus hystrix. Elles représentent ainsi un intérêt en tant qu'agent de lutte biologique contre des ravageurs agricoles.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces selon MycoBank                                            (11 mai 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces selon MycoBank                                            (11 mai 2022) :
 Hirsutella abietina (Höhn.) Petch, 1931
 Hirsutella acerosa H.C. Evans &amp; Samson, 1984
 Hirsutella acridiorum Petch, 1932
